--- a/Module 05 - Non-current Assets Property, Plant and Equipment.xlsx
+++ b/Module 05 - Non-current Assets Property, Plant and Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4145" documentId="8_{42836195-9D8A-4966-8E19-3C69090390C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66100ECE-70F8-4076-924C-5BB9E2EF7C8A}"/>
+  <xr:revisionPtr revIDLastSave="4150" documentId="8_{42836195-9D8A-4966-8E19-3C69090390C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA69588B-47CB-4D7C-89EC-F6891938AA77}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="4995" windowWidth="16200" windowHeight="11385" tabRatio="888" activeTab="9" xr2:uid="{74E3884C-20C6-497F-9078-DF379859A94F}"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="14370" tabRatio="888" activeTab="1" xr2:uid="{74E3884C-20C6-497F-9078-DF379859A94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="663">
   <si>
     <t>WSE5.1</t>
   </si>
@@ -2033,6 +2033,9 @@
   </si>
   <si>
     <t>being depreciation charge in the year on existing and additional PPE</t>
+  </si>
+  <si>
+    <t>if old ppe scrapped - consider if it should have been held at year end at all.  Should it have been derecognised in the nominal and asset register.  Meaning assets were overstated.</t>
   </si>
 </sst>
 </file>
@@ -2632,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FDB8A-5FA8-48B5-AD4C-5D40EBB90060}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5340,10 +5343,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202EC791-BB98-4A9D-AA77-D0A872FF4F4A}">
-  <dimension ref="A1:G266"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView topLeftCell="A242" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B284" sqref="B284"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5415,469 +5418,466 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
         <v>41852</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3">
-        <v>250000</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3">
-        <f>+F20-E18</f>
-        <v>265000</v>
-      </c>
-      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
-        <v>515000</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E20" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3">
+        <f>+F22-E20</f>
+        <v>265000</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <v>515000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4000</v>
-      </c>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3">
-        <v>190000</v>
-      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <f>SUM(E24:E26)</f>
-        <v>200000</v>
-      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <f>SUM(E26:E28)</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="4">
-        <v>42185</v>
-      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <v>42185</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E34" s="3">
         <f>+(11/48)*252000</f>
         <v>57750</v>
       </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
-        <f>+E32</f>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <f>+E34</f>
         <v>57750</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="4">
-        <v>45747</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D50" s="3">
         <v>540000</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="3">
-        <f>+D48/1.2</f>
+      <c r="D51" s="3">
+        <f>+D50/1.2</f>
         <v>450000</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C51" s="1" t="s">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D53" s="3">
         <v>25000</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D54" s="3">
         <v>28000</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D55" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D56" s="3">
         <v>40000</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="7">
-        <f>SUM(D49:D54)</f>
+    <row r="57" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="7">
+        <f>SUM(D51:D56)</f>
         <v>533000</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+    <row r="58" spans="2:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D61" s="4">
         <v>45383</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D62" s="4">
         <v>45900</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C63" s="4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C65" s="4">
         <v>45383</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D65" s="3">
         <v>200000</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C66" s="4">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C68" s="4">
         <v>45657</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D68" s="3">
         <v>215000</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C67" s="4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C69" s="4">
         <v>45716</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D69" s="3">
         <v>210000</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="3">
-        <v>75000</v>
-      </c>
-    </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="3">
-        <v>51000</v>
-      </c>
+      <c r="D70" s="3"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D71" s="3">
-        <v>68000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D72" s="3">
-        <v>96000</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>63</v>
+        <v>51000</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="3">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D75" s="3">
         <v>0</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="7">
-        <f>SUM(D63:D73)</f>
+    <row r="76" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="7">
+        <f>SUM(D65:D75)</f>
         <v>915000</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    <row r="77" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C85" s="4">
-        <v>45747</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C87" s="3">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>648</v>
+        <v>43</v>
+      </c>
+      <c r="C87" s="4">
+        <v>45747</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="3">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E91" s="3">
         <v>25000000</v>
       </c>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C92" s="3">
-        <v>2000000</v>
-      </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="3">
+        <v>2000000</v>
+      </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
@@ -5886,573 +5886,569 @@
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E97" s="3">
-        <v>27000000</v>
-      </c>
+      <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E98" s="3"/>
-      <c r="F98" s="3">
-        <v>2000000</v>
-      </c>
+      <c r="F98" s="3"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="3">
+        <v>27000000</v>
+      </c>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3">
+      <c r="E101" s="3"/>
+      <c r="F101" s="3">
         <v>25000000</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-    </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E104" s="3">
         <v>400000</v>
       </c>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3">
-        <v>400000</v>
-      </c>
+      <c r="F104" s="3"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3">
+        <v>400000</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C112" s="4">
-        <v>45747</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" s="8">
-        <v>0.09</v>
+        <v>43</v>
+      </c>
+      <c r="C114" s="4">
+        <v>45747</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D116" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D118" s="3">
         <v>24500</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B117" s="4">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B119" s="4">
         <v>45443</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118" s="3">
-        <f>_xlfn.DAYS(C112,B117)/30</f>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="3">
+        <f>_xlfn.DAYS(C114,B119)/30</f>
         <v>10.133333333333333</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="4">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="4">
         <v>45565</v>
       </c>
-      <c r="D122" s="3">
-        <f>+D63</f>
+      <c r="D124" s="3">
+        <f>+D65</f>
         <v>200000</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E124" s="9">
         <f>6/12</f>
         <v>0.5</v>
       </c>
-      <c r="F122" s="3">
-        <f>+D122*E122*$D$114</f>
+      <c r="F124" s="3">
+        <f>+D124*E124*$D$116</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B123" s="4">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B125" s="4">
         <v>45657</v>
       </c>
-      <c r="D123" s="3">
-        <f>+D66</f>
+      <c r="D125" s="3">
+        <f>+D68</f>
         <v>215000</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E125" s="9">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="F123" s="3">
-        <f>+D123*E123*$D$114</f>
+      <c r="F125" s="3">
+        <f>+D125*E125*$D$116</f>
         <v>4837.5</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="4">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B126" s="4">
         <v>45716</v>
       </c>
-      <c r="D124" s="3">
-        <f>+D67</f>
+      <c r="D126" s="3">
+        <f>+D69</f>
         <v>210000</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E126" s="9">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F124" s="3">
-        <f>+D124*E124*$D$114</f>
+      <c r="F126" s="3">
+        <f>+D126*E126*$D$116</f>
         <v>1575</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B127" s="4">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="4">
         <v>45626</v>
       </c>
-      <c r="D127" s="3">
-        <f>+D70</f>
+      <c r="D129" s="3">
+        <f>+D72</f>
         <v>51000</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E129" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F127" s="3">
-        <f>+D127*E127*$D$114</f>
+      <c r="F129" s="3">
+        <f>+D129*E129*$D$116</f>
         <v>1530</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" s="4">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="4">
         <v>45688</v>
       </c>
-      <c r="D128" s="3">
-        <f>+D71</f>
+      <c r="D130" s="3">
+        <f>+D73</f>
         <v>68000</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E130" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F128" s="3">
-        <f>+D128*E128*$D$114</f>
+      <c r="F130" s="3">
+        <f>+D130*E130*$D$116</f>
         <v>1019.9999999999999</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="4">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="4">
         <v>45443</v>
       </c>
-      <c r="D131" s="1">
-        <f>+$D$72/2</f>
+      <c r="D133" s="1">
+        <f>+$D$74/2</f>
         <v>48000</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E133" s="9">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F131" s="3">
-        <f>+D131*E131*$D$114</f>
+      <c r="F133" s="3">
+        <f>+D133*E133*$D$116</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" s="4">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B134" s="4">
         <v>45473</v>
       </c>
-      <c r="D132" s="1">
-        <f>+$D$72/2</f>
+      <c r="D134" s="1">
+        <f>+$D$74/2</f>
         <v>48000</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E134" s="9">
         <v>0.75</v>
       </c>
-      <c r="F132" s="3">
-        <f>+D132*E132*$D$114</f>
+      <c r="F134" s="3">
+        <f>+D134*E134*$D$116</f>
         <v>3240</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" s="1" t="s">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F133" s="10">
-        <f>SUM(F122:F132)</f>
+      <c r="F135" s="10">
+        <f>SUM(F124:F134)</f>
         <v>24802.5</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="1" t="s">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F134" s="11">
-        <f>+D116</f>
+      <c r="F136" s="11">
+        <f>+D118</f>
         <v>24500</v>
       </c>
     </row>
-    <row r="136" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
+    <row r="138" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F136" s="7">
-        <f>+F134</f>
+      <c r="F138" s="7">
+        <f>+F136</f>
         <v>24500</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    <row r="139" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D141" s="3">
-        <v>15000000</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D142" s="3">
-        <v>22000000</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3">
-        <v>20000000</v>
+        <v>92</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D143" s="3">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D144" s="3">
+        <v>22000000</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D146" s="1">
         <v>10</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F146" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B147" s="1" t="s">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D147" s="3">
-        <f>+F142-D141</f>
+      <c r="D149" s="3">
+        <f>+F144-D143</f>
         <v>5000000</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B150" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D150" s="3">
-        <f>+F142</f>
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B151" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D151" s="3">
-        <f>+D143</f>
-        <v>7000000</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E152" s="3">
-        <f>+D142</f>
-        <v>22000000</v>
+        <v>99</v>
+      </c>
+      <c r="D152" s="3">
+        <f>+F144</f>
+        <v>20000000</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D153" s="3">
+        <f>+D145</f>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E154" s="3">
+        <f>+D144</f>
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E153" s="3">
-        <f>+D151+D150-E152</f>
+      <c r="E155" s="3">
+        <f>+D153+D152-E154</f>
         <v>5000000</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B156" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B157" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D157" s="3">
-        <v>15000000</v>
-      </c>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3">
-        <v>5700000</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D158" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D159" s="3">
-        <f>+D157-D158</f>
-        <v>5000000</v>
+        <v>15000000</v>
       </c>
       <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
+      <c r="F159" s="3">
+        <v>5700000</v>
+      </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D160" s="3"/>
+      <c r="B160" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="3">
+        <v>10000000</v>
+      </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D161" s="3">
+        <f>+D159-D160</f>
+        <v>5000000</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B164" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D164" s="3">
-        <f>+F157</f>
-        <v>5700000</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B165" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D165" s="3">
-        <f>+F161</f>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3">
         <v>1500000</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D166" s="3">
-        <f>+D158</f>
-        <v>10000000</v>
+        <f>+F159</f>
+        <v>5700000</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E167" s="3">
-        <f>+D157</f>
-        <v>15000000</v>
+        <v>108</v>
+      </c>
+      <c r="D167" s="3">
+        <f>+F163</f>
+        <v>1500000</v>
       </c>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E168" s="3">
-        <f>+D166+D165+D164-E167</f>
-        <v>2200000</v>
+        <v>110</v>
+      </c>
+      <c r="D168" s="3">
+        <f>+D160</f>
+        <v>10000000</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="E169" s="3">
+        <f>+D159</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E170" s="3">
+        <f>+D168+D167+D166-E169</f>
+        <v>2200000</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B176" s="1" t="s">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B177" s="1" t="s">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C179" s="4">
         <v>45657</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B180" s="1" t="s">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E182" s="3">
         <v>7000000</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B181" s="1" t="s">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E183" s="3">
         <v>-1400000</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
+    <row r="184" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E182" s="5">
-        <f>SUM(E180:E181)</f>
+      <c r="E184" s="5">
+        <f>SUM(E182:E183)</f>
         <v>5600000</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B184" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C184" s="4">
-        <v>45658</v>
-      </c>
-      <c r="E184" s="3">
-        <v>8300000</v>
-      </c>
-    </row>
+    <row r="185" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="C186" s="4">
+        <v>45658</v>
       </c>
       <c r="E186" s="3">
-        <f>+E184-E182</f>
-        <v>2700000</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B187" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E187" s="3">
-        <f>+E181</f>
-        <v>-1400000</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>207</v>
+        <v>8300000</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="E188" s="3">
-        <f>SUM(E186:E187)</f>
-        <v>1300000</v>
+        <f>+E186-E184</f>
+        <v>2700000</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>649</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E189" s="3">
+        <f>+E183</f>
+        <v>-1400000</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
@@ -6460,250 +6456,241 @@
         <v>70</v>
       </c>
       <c r="E190" s="3">
-        <f>+E184</f>
-        <v>8300000</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B191" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E191" s="3">
-        <f>+E190/16</f>
-        <v>518750</v>
+        <f>SUM(E188:E189)</f>
+        <v>1300000</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E192" s="3">
+        <f>+E186</f>
+        <v>8300000</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B193" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E193" s="3">
+        <f>+E192/16</f>
+        <v>518750</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E192" s="3">
-        <f>+E190-E191</f>
+      <c r="E194" s="3">
+        <f>+E192-E193</f>
         <v>7781250</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B195" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E195" s="3">
-        <f>+E188</f>
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B196" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E196" s="3">
-        <f>-E187</f>
-        <v>1400000</v>
       </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F197" s="3">
-        <f>SUM(E195:E196)</f>
-        <v>2700000</v>
+        <v>25</v>
+      </c>
+      <c r="E197" s="3">
+        <f>+E190</f>
+        <v>1300000</v>
       </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="E198" s="3">
+        <f>-E189</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F199" s="3">
+        <f>SUM(E197:E198)</f>
+        <v>2700000</v>
       </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E200" s="3">
-        <f>+E191</f>
-        <v>518750</v>
-      </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B201" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F201" s="3">
-        <f>+E200</f>
-        <v>518750</v>
+        <v>124</v>
       </c>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" s="3">
+        <f>+E193</f>
+        <v>518750</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F203" s="3">
+        <f>+E202</f>
+        <v>518750</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B204" s="1" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B205" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E207" s="3">
-        <f>+E186/16</f>
+      <c r="E209" s="3">
+        <f>+E188/16</f>
         <v>168750</v>
       </c>
-      <c r="F207" s="3"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B208" s="1" t="s">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B210" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3">
-        <f>+E207</f>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3">
+        <f>+E209</f>
         <v>168750</v>
       </c>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B211" s="1" t="s">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="1" t="s">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B215" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E213" s="3">
-        <f>+E184</f>
+      <c r="E215" s="3">
+        <f>+E186</f>
         <v>8300000</v>
       </c>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B214" s="1" t="s">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B216" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E214" s="3">
-        <f>+E200</f>
+      <c r="E216" s="3">
+        <f>+E202</f>
         <v>518750</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="1" t="s">
+    <row r="217" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E215" s="7">
-        <f>+E213-E214</f>
+      <c r="E217" s="7">
+        <f>+E215-E216</f>
         <v>7781250</v>
       </c>
     </row>
-    <row r="216" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B217" s="1" t="s">
+    <row r="218" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B219" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B220" s="1" t="s">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B222" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B222" s="1" t="s">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B224" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C224" s="4">
         <v>46022</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B224" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C224" s="4">
-        <v>45657</v>
-      </c>
-      <c r="D224" s="3">
-        <v>8000000</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B225" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C225" s="4">
-        <v>45657</v>
-      </c>
-      <c r="D225" s="3">
-        <v>7500000</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="C226" s="4">
+        <v>45657</v>
       </c>
       <c r="D226" s="3">
-        <f>+D224-D225</f>
-        <v>500000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D227" s="1">
-        <v>40</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="C227" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D227" s="3">
+        <v>7500000</v>
       </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B228" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D228" s="3">
-        <v>187500</v>
+        <f>+D226-D227</f>
+        <v>500000</v>
       </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D229" s="3">
-        <v>200000</v>
-      </c>
-      <c r="F229" s="1">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="D229" s="1">
+        <v>40</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C230" s="4">
-        <v>46022</v>
+        <v>141</v>
       </c>
       <c r="D230" s="3">
-        <v>8100000</v>
+        <v>187500</v>
       </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C231" s="4">
-        <v>46022</v>
-      </c>
-      <c r="D231" s="15">
-        <f>+D225-D228</f>
-        <v>7312500</v>
+        <v>142</v>
+      </c>
+      <c r="D231" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F231" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D232" s="6">
-        <f>+D230-D231</f>
-        <v>787500</v>
+        <v>143</v>
+      </c>
+      <c r="C232" s="4">
+        <v>46022</v>
+      </c>
+      <c r="D232" s="3">
+        <v>8100000</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
@@ -6713,243 +6700,264 @@
       <c r="C233" s="4">
         <v>46022</v>
       </c>
-      <c r="D233" s="3">
-        <f>+D225-D228</f>
+      <c r="D233" s="15">
+        <f>+D227-D230</f>
         <v>7312500</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D234" s="3">
-        <f>+D224-D229</f>
-        <v>7800000</v>
+        <v>144</v>
+      </c>
+      <c r="D234" s="6">
+        <f>+D232-D233</f>
+        <v>787500</v>
       </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C235" s="4">
+        <v>46022</v>
+      </c>
+      <c r="D235" s="3">
+        <f>+D227-D230</f>
+        <v>7312500</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B236" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D236" s="3">
+        <f>+D226-D231</f>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B237" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D235" s="3">
-        <f>+D234-D233</f>
+      <c r="D237" s="3">
+        <f>+D236-D235</f>
         <v>487500</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E237" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="236" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="1" t="s">
+    <row r="238" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D236" s="5">
-        <f>+D232-D235</f>
+      <c r="D238" s="5">
+        <f>+D234-D237</f>
         <v>300000</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="237" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B238" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D238" s="3">
-        <f>+D232</f>
-        <v>787500</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B239" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E239" s="3">
-        <f>+D235</f>
-        <v>487500</v>
-      </c>
-    </row>
+    <row r="239" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B240" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E240" s="3">
-        <f>+D236</f>
-        <v>300000</v>
+        <v>148</v>
+      </c>
+      <c r="D240" s="3">
+        <f>+D234</f>
+        <v>787500</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E241" s="3">
+        <f>+D237</f>
+        <v>487500</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E242" s="3">
+        <f>+D238</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" s="1" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B243" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B245" s="1" t="s">
-        <v>151</v>
+        <v>652</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C247" s="4">
-        <v>45658</v>
-      </c>
-      <c r="D247" s="3">
-        <v>8300000</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B248" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C248" s="4">
-        <v>45658</v>
-      </c>
-      <c r="D248" s="3">
-        <v>2700000</v>
+        <v>151</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B249" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D249" s="1">
-        <v>16</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
+      </c>
+      <c r="C249" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D249" s="3">
+        <v>8300000</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B250" s="1" t="s">
-        <v>95</v>
+        <v>153</v>
+      </c>
+      <c r="C250" s="4">
+        <v>45658</v>
       </c>
       <c r="D250" s="3">
-        <f>3/16*D247</f>
-        <v>1556250</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C251" s="4">
-        <v>46752</v>
-      </c>
-      <c r="D251" s="3">
-        <f>+D247-D250</f>
-        <v>6743750</v>
+        <v>154</v>
+      </c>
+      <c r="D251" s="1">
+        <v>16</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B252" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D252" s="3">
+        <f>3/16*D249</f>
+        <v>1556250</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B253" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C253" s="4">
+        <v>46752</v>
+      </c>
+      <c r="D253" s="3">
+        <f>+D249-D252</f>
+        <v>6743750</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B254" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C254" s="4">
         <v>46753</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D254" s="3">
         <v>4000000</v>
       </c>
     </row>
-    <row r="253" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="1" t="s">
+    <row r="255" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D253" s="5">
-        <f>+D251-D252</f>
+      <c r="D255" s="5">
+        <f>+D253-D254</f>
         <v>2743750</v>
       </c>
     </row>
-    <row r="254" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B255" s="1" t="s">
+    <row r="256" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B257" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C257" s="4">
         <v>45658</v>
       </c>
-      <c r="D255" s="3">
-        <f>+D248</f>
+      <c r="D257" s="3">
+        <f>+D250</f>
         <v>2700000</v>
       </c>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B256" s="1" t="s">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B258" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D256" s="3">
-        <f>3/16*D255</f>
+      <c r="D258" s="3">
+        <f>3/16*D257</f>
         <v>506250</v>
       </c>
     </row>
-    <row r="257" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
+    <row r="259" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C259" s="4">
         <v>46752</v>
       </c>
-      <c r="D257" s="5">
-        <f>+D255-D256</f>
+      <c r="D259" s="5">
+        <f>+D257-D258</f>
         <v>2193750</v>
       </c>
     </row>
-    <row r="258" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B259" s="1" t="s">
+    <row r="260" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B261" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D259" s="3">
-        <f>+D253-D257</f>
+      <c r="D261" s="3">
+        <f>+D255-D259</f>
         <v>550000</v>
-      </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B262" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E262" s="3">
-        <f>+D250</f>
-        <v>1556250</v>
-      </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B263" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E263" s="3">
-        <f>+D257</f>
-        <v>2193750</v>
       </c>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B264" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E264" s="3">
+        <f>+D252</f>
+        <v>1556250</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B265" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E265" s="3">
         <f>+D259</f>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C265" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F265" s="3">
-        <f>SUM(E262:E264)</f>
-        <v>4300000</v>
+        <v>2193750</v>
       </c>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B266" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E266" s="3">
+        <f>+D261</f>
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C267" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F267" s="3">
+        <f>SUM(E264:E266)</f>
+        <v>4300000</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6966,7 +6974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A5EDEA-A94F-40AB-8E69-161D7E2B893C}">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>

--- a/Module 05 - Non-current Assets Property, Plant and Equipment.xlsx
+++ b/Module 05 - Non-current Assets Property, Plant and Equipment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4150" documentId="8_{42836195-9D8A-4966-8E19-3C69090390C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA69588B-47CB-4D7C-89EC-F6891938AA77}"/>
+  <xr:revisionPtr revIDLastSave="4225" documentId="8_{42836195-9D8A-4966-8E19-3C69090390C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84958119-2FFD-4DDF-B3FA-87DFA5C3D6D8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="28800" windowHeight="14370" tabRatio="888" activeTab="1" xr2:uid="{74E3884C-20C6-497F-9078-DF379859A94F}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="12420" windowHeight="11385" tabRatio="888" activeTab="1" xr2:uid="{74E3884C-20C6-497F-9078-DF379859A94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="667">
   <si>
     <t>WSE5.1</t>
   </si>
@@ -85,36 +85,6 @@
     <t>ignore  chapters 30, 33, 34 and 36</t>
   </si>
   <si>
-    <t>this is open book so make sense to use a template / open book.</t>
-  </si>
-  <si>
-    <t>template the fuck out of this exam</t>
-  </si>
-  <si>
-    <t>prepatred and given a consol template and CF temoplate</t>
-  </si>
-  <si>
-    <t>on cirrus - the CF or consol is prepared in excel and uploaded.  will either be the consol or CF</t>
-  </si>
-  <si>
-    <t>guess the consol/CF will be the big 40 marker question</t>
-  </si>
-  <si>
-    <t>cirrus input is basically and blank word doc</t>
-  </si>
-  <si>
-    <t>copy and paste and excel</t>
-  </si>
-  <si>
-    <t>do not post as a picture</t>
-  </si>
-  <si>
-    <t>deprectiation calculated on a monthly basis at TPE.</t>
-  </si>
-  <si>
-    <t>think about depreciation in terms of months</t>
-  </si>
-  <si>
     <t>Activity 1</t>
   </si>
   <si>
@@ -2036,6 +2006,48 @@
   </si>
   <si>
     <t>if old ppe scrapped - consider if it should have been held at year end at all.  Should it have been derecognised in the nominal and asset register.  Meaning assets were overstated.</t>
+  </si>
+  <si>
+    <t>5.3.1 Costs which should not be capitalised</t>
+  </si>
+  <si>
+    <t>The following costs should not be capitalised:</t>
+  </si>
+  <si>
+    <t>• Costs of opening a new facility</t>
+  </si>
+  <si>
+    <t>• Administration and other general overhead costs</t>
+  </si>
+  <si>
+    <t>• Initial operating losses and any costs of relocating or reorganising</t>
+  </si>
+  <si>
+    <t>• Costs of conducting a new business in a new location (including staff training costs)</t>
+  </si>
+  <si>
+    <t>• Costs of introducing a new product or service (including costs of advertising and promotional activities)</t>
+  </si>
+  <si>
+    <t>Cessation of capitalisation when the asset is ready for its intended use</t>
+  </si>
+  <si>
+    <t>it is recognised in the year the operation ceases.  not before - even if announcement made long time before.</t>
+  </si>
+  <si>
+    <t>normal PPE for ias 16</t>
+  </si>
+  <si>
+    <t>IAS 23 - borrowing cost</t>
+  </si>
+  <si>
+    <t>ifrs 13 - measurement of FV</t>
+  </si>
+  <si>
+    <t>capitalised borrowing costs should not exceed the actual borrowing costs</t>
+  </si>
+  <si>
+    <t>if the asset contrcutino ceases, stop capitalising for that period</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2057,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2080,6 +2092,14 @@
       <i/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2158,7 +2178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2182,6 +2202,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2201,6 +2222,160 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>48217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEF1E6A-AFD9-2D40-7C2F-B3E781370A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="661147" y="2543736"/>
+          <a:ext cx="3630706" cy="2087688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>32262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E3B785-5125-FD9D-4DC7-1712AD882689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612913" y="37661022"/>
+          <a:ext cx="3718891" cy="2268565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>120395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>3614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA3FF97-60B1-3CCF-1EEF-D29A516699BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7473695"/>
+          <a:ext cx="3705225" cy="2016819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2561,7 +2736,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -2651,15 +2826,15 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C4" s="4">
         <v>45869</v>
@@ -2667,17 +2842,17 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C8" s="4">
         <v>45689</v>
@@ -2685,31 +2860,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C9" s="1">
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C13" s="8">
         <v>0.02</v>
@@ -2720,7 +2895,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C14" s="8">
         <v>0.15</v>
@@ -2731,7 +2906,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C15" s="8">
         <v>0.1</v>
@@ -2742,21 +2917,21 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C18" s="4">
         <v>45505</v>
@@ -2776,7 +2951,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C19" s="4">
         <v>45505</v>
@@ -2796,7 +2971,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C20" s="4">
         <v>45505</v>
@@ -2823,7 +2998,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4">
         <v>45688</v>
@@ -2843,7 +3018,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4">
         <v>45688</v>
@@ -2866,7 +3041,7 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C24" s="4">
         <v>45688</v>
@@ -2890,7 +3065,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C26" s="4">
         <v>45689</v>
@@ -2910,7 +3085,7 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D27" s="1">
         <f>+D26-D24</f>
@@ -2927,7 +3102,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G28" s="1">
         <f>+G24-G26</f>
@@ -2936,7 +3111,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E29" s="1">
         <v>50</v>
@@ -2950,17 +3125,17 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D34" s="1">
         <f>+D18</f>
@@ -2969,7 +3144,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D35" s="1">
         <f>+D26</f>
@@ -2978,7 +3153,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D36" s="1">
         <f>+D35-D34</f>
@@ -2987,7 +3162,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E38" s="1">
         <f>+D36</f>
@@ -2996,7 +3171,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F39" s="1">
         <f>+E38</f>
@@ -3005,17 +3180,17 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1">
         <f>+E18</f>
@@ -3024,7 +3199,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1">
         <f>+E23</f>
@@ -3033,7 +3208,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D46" s="1">
         <f>+D44-D45</f>
@@ -3042,7 +3217,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D47" s="1">
         <f>+E26</f>
@@ -3057,7 +3232,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D50" s="1">
         <f>+D48-D51</f>
@@ -3066,7 +3241,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D51" s="1">
         <f>+D45</f>
@@ -3075,7 +3250,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E52" s="1">
         <f>SUM(D50:D51)</f>
@@ -3084,23 +3259,23 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C56" s="4">
         <v>45689</v>
@@ -3111,7 +3286,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C57" s="4">
         <v>45689</v>
@@ -3122,7 +3297,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C58" s="4">
         <v>45689</v>
@@ -3134,7 +3309,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C59" s="4">
         <v>45689</v>
@@ -3145,7 +3320,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D60" s="3">
         <f>+D59-D58</f>
@@ -3154,7 +3329,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C62" s="4">
         <v>45689</v>
@@ -3166,7 +3341,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C63" s="4">
         <v>45778</v>
@@ -3177,7 +3352,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D64" s="3">
         <f>+D63-D62</f>
@@ -3189,7 +3364,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="1">
@@ -3199,7 +3374,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D67" s="3"/>
       <c r="F67" s="3">
@@ -3209,7 +3384,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D68" s="3"/>
       <c r="F68" s="3">
@@ -3219,7 +3394,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="D69" s="3"/>
     </row>
@@ -3228,7 +3403,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
@@ -3238,7 +3413,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D72" s="3"/>
       <c r="F72" s="3">
@@ -3251,15 +3426,15 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D75" s="3">
         <f>+E26</f>
@@ -3268,7 +3443,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D76" s="3">
         <f>+D62</f>
@@ -3283,13 +3458,13 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C79" s="19" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D79" s="3">
         <f>0.01*D77</f>
@@ -3301,7 +3476,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3">
@@ -3311,7 +3486,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3328,7 +3503,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D85" s="3">
         <f>+E52</f>
@@ -3359,7 +3534,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E90" s="3">
         <f>+D88</f>
@@ -3368,7 +3543,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F91" s="3">
         <f>+E90</f>
@@ -3377,22 +3552,22 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C96" s="4">
         <v>45689</v>
@@ -3404,7 +3579,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C97" s="4">
         <v>45689</v>
@@ -3416,7 +3591,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C98" s="4">
         <v>45689</v>
@@ -3428,7 +3603,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C99" s="4">
         <v>45689</v>
@@ -3439,7 +3614,7 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="C100" s="4">
         <v>45689</v>
@@ -3451,7 +3626,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D102" s="3">
         <f>+D97</f>
@@ -3460,7 +3635,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E103" s="3">
         <f>+D100</f>
@@ -3469,7 +3644,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E104" s="3">
         <f>+D102-E103</f>
@@ -3478,23 +3653,23 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D106" s="19"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
@@ -3503,7 +3678,7 @@
         <v>380</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
@@ -3512,7 +3687,7 @@
         <v>50.475000000000001</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
@@ -3523,12 +3698,12 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E116" s="3">
         <f>+E112</f>
@@ -3537,7 +3712,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F117" s="3">
         <f>+E116</f>
@@ -3546,24 +3721,24 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E121" s="1">
         <f>6/60*D100</f>
         <v>56.6</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E123" s="3">
         <f>+E121</f>
@@ -3573,7 +3748,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3">
@@ -3583,22 +3758,22 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E131" s="1">
         <f>+G18</f>
@@ -3607,7 +3782,7 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E132" s="1">
         <f>+G23</f>
@@ -3616,7 +3791,7 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E133" s="1">
         <f>+E131-E132</f>
@@ -3625,7 +3800,7 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E134" s="1">
         <f>+G26</f>
@@ -3634,7 +3809,7 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="14" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="E135" s="1">
         <f>+E133-E134</f>
@@ -3643,7 +3818,7 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="E138" s="1">
         <f>+E135</f>
@@ -3652,7 +3827,7 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E139" s="1">
         <f>+E132</f>
@@ -3661,7 +3836,7 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F140" s="1">
         <f>SUM(E138:E139)</f>
@@ -3670,14 +3845,14 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="E143" s="3">
         <f>6/60*G26</f>
         <v>100</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
@@ -3694,7 +3869,7 @@
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E147" s="3">
         <f>+E145</f>
@@ -3703,7 +3878,7 @@
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F148" s="3">
         <f>+E147</f>
@@ -3712,7 +3887,7 @@
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -3747,12 +3922,12 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>46752</v>
@@ -3763,18 +3938,18 @@
         <v>46388</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3">
         <v>2010</v>
@@ -3788,7 +3963,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3">
         <v>-120</v>
@@ -3802,7 +3977,7 @@
     </row>
     <row r="11" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5">
         <f>SUM(C9:C10)</f>
@@ -3820,27 +3995,27 @@
     <row r="12" spans="1:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -3848,21 +4023,21 @@
         <v>46388</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C21" s="1">
         <v>135</v>
@@ -3879,7 +4054,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C22" s="1">
         <v>524</v>
@@ -3896,7 +4071,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
@@ -3913,7 +4088,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C24" s="1">
         <f>+C21+C22-C23</f>
@@ -3934,7 +4109,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C25" s="1">
         <f>+C22-C23</f>
@@ -3960,7 +4135,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C29" s="1">
         <v>56</v>
@@ -3977,7 +4152,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C30" s="1">
         <v>103</v>
@@ -3994,7 +4169,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C32" s="1">
         <f>50*12</f>
@@ -4015,28 +4190,28 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C38" s="4">
         <v>45657</v>
@@ -4050,7 +4225,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4">
         <v>46387</v>
@@ -4064,7 +4239,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C40" s="4">
         <v>46387</v>
@@ -4080,7 +4255,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C41" s="4">
         <v>45657</v>
@@ -4094,18 +4269,18 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4">
         <v>46569</v>
@@ -4123,7 +4298,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="C47" s="4">
         <v>46387</v>
@@ -4135,7 +4310,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C48" s="4">
         <v>46569</v>
@@ -4147,7 +4322,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D49" s="6">
         <f>SUM(D47:D48)</f>
@@ -4159,7 +4334,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C51" s="4">
         <v>46569</v>
@@ -4171,7 +4346,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C52" s="4">
         <f>+C51</f>
@@ -4184,7 +4359,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D53" s="6">
         <f>+D51-D52</f>
@@ -4193,7 +4368,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="1">
@@ -4203,7 +4378,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D56" s="3">
         <f>+D51</f>
@@ -4212,7 +4387,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="D57" s="6">
         <f>+D55-D56</f>
@@ -4221,7 +4396,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="E59" s="3">
         <f>+D49</f>
@@ -4230,7 +4405,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F60" s="3">
         <f>+D57</f>
@@ -4239,7 +4414,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F61" s="3">
         <f>+D53</f>
@@ -4248,12 +4423,12 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E64" s="1">
         <f>+E41+D41</f>
@@ -4262,7 +4437,7 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F65" s="1">
         <f>+E64</f>
@@ -4271,28 +4446,28 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="16" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="14" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C70" s="4">
         <f>+B20</f>
@@ -4317,7 +4492,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C71" s="4">
         <f>+C45</f>
@@ -4342,7 +4517,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C72" s="4">
         <f>+B8</f>
@@ -4367,7 +4542,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C73" s="4">
         <f>+C48</f>
@@ -4381,7 +4556,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C74" s="4">
         <f>+B8</f>
@@ -4406,7 +4581,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C75" s="4">
         <f>+B8</f>
@@ -4440,7 +4615,7 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E78" s="3">
         <f>+G76</f>
@@ -4450,7 +4625,7 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="F79" s="3">
         <f>+E78</f>
@@ -4460,7 +4635,7 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="G80" s="3"/>
     </row>
@@ -4475,29 +4650,29 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="14" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C86" s="4">
         <v>46388</v>
@@ -4522,7 +4697,7 @@
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D87" s="15">
         <f>+D45</f>
@@ -4542,7 +4717,7 @@
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C88" s="4">
         <v>46752</v>
@@ -4567,7 +4742,7 @@
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C89" s="4">
         <v>46752</v>
@@ -4588,7 +4763,7 @@
     </row>
     <row r="90" spans="2:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D90" s="5">
         <f>+D89-D88</f>
@@ -4613,13 +4788,13 @@
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C93" s="4">
         <v>46388</v>
@@ -4644,7 +4819,7 @@
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C94" s="4">
         <v>46388</v>
@@ -4669,7 +4844,7 @@
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C95" s="4">
         <f>+C45</f>
@@ -4687,7 +4862,7 @@
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C96" s="4">
         <v>43100</v>
@@ -4712,7 +4887,7 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C97" s="4">
         <v>43100</v>
@@ -4736,7 +4911,7 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C98" s="4">
         <v>43100</v>
@@ -4756,7 +4931,7 @@
     </row>
     <row r="99" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="5">
@@ -4792,7 +4967,7 @@
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="3"/>
@@ -4802,7 +4977,7 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="3">
@@ -4815,7 +4990,7 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="3">
@@ -4828,7 +5003,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="3">
@@ -4848,7 +5023,7 @@
     <row r="107" spans="2:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D108" s="3">
         <f>-+G90</f>
@@ -4857,7 +5032,7 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D109" s="1">
         <f>-+F29+3</f>
@@ -4866,7 +5041,7 @@
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D110" s="3">
         <f>-+G99</f>
@@ -4875,7 +5050,7 @@
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="D111" s="1">
         <f>-+F30</f>
@@ -4884,7 +5059,7 @@
     </row>
     <row r="112" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="D112" s="7">
         <f>SUM(D108:D111)</f>
@@ -4894,7 +5069,7 @@
     <row r="113" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="D114" s="3">
         <f>+D90+E90+F90+D99+E99+F99</f>
@@ -4903,7 +5078,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D115" s="1">
         <f>+D109+D111</f>
@@ -4912,7 +5087,7 @@
     </row>
     <row r="116" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D116" s="7">
         <f>SUM(D114:D115)</f>
@@ -4922,7 +5097,7 @@
     <row r="117" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D118" s="6">
         <f>+D106+D112-D116</f>
@@ -4931,7 +5106,7 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E120" s="3">
         <f>+D112</f>
@@ -4940,7 +5115,7 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E121" s="3">
         <f>+D106</f>
@@ -4949,7 +5124,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C122" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="F122" s="3">
         <f>+D118</f>
@@ -4958,7 +5133,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="F123" s="3">
         <f>+D116</f>
@@ -4967,12 +5142,12 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="14" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
@@ -4981,33 +5156,33 @@
         <v>84</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="14" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D132" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="C133" s="4">
         <v>46666</v>
@@ -5022,7 +5197,7 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C134" s="4">
         <v>46666</v>
@@ -5037,7 +5212,7 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C135" s="4">
         <v>46666</v>
@@ -5052,7 +5227,7 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C136" s="4">
         <v>46666</v>
@@ -5067,7 +5242,7 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C137" s="4">
         <v>46666</v>
@@ -5096,7 +5271,7 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C140" s="4">
         <v>46666</v>
@@ -5108,12 +5283,12 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E143" s="1">
         <f>+F138</f>
@@ -5122,7 +5297,7 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C144" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="F144" s="1">
         <f>+E143</f>
@@ -5131,17 +5306,17 @@
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="1" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F149" s="3">
         <f>+D9</f>
@@ -5150,18 +5325,18 @@
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="F150" s="1">
         <v>7</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F151" s="6">
         <f>+F149/F150</f>
@@ -5173,7 +5348,7 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E153" s="3">
         <f>YEARFRAC(C140,C6)*12</f>
@@ -5194,7 +5369,7 @@
         <v>4.3849206349206344</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.2">
@@ -5202,7 +5377,7 @@
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F156" s="3">
         <f>+F151+F154</f>
@@ -5211,7 +5386,7 @@
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3">
@@ -5221,74 +5396,74 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="1" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="14" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B161" s="16" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B168" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B169" s="20" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B170" s="20" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B171" s="20" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B172" s="20" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B173" s="20" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B174" s="20" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B175" s="20" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B176" s="20" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="20" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.2">
@@ -5325,12 +5500,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="16" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -5343,10 +5518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202EC791-BB98-4A9D-AA77-D0A872FF4F4A}">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G329"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5366,202 +5541,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>662</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="4">
-        <v>41852</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3">
-        <v>250000</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3">
-        <f>+F22-E20</f>
-        <v>265000</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
-        <v>515000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="3">
-        <v>190000</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <f>SUM(E26:E28)</f>
-        <v>200000</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="4">
+        <v>41852</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="4">
-        <v>42185</v>
-      </c>
-      <c r="E33" s="3"/>
+      <c r="B33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="3">
+        <v>250000</v>
+      </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E34" s="3">
-        <f>+(11/48)*252000</f>
-        <v>57750</v>
+        <f>+F35-E33</f>
+        <v>265000</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
-        <v>35</v>
+      <c r="B35" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3">
-        <f>+E34</f>
-        <v>57750</v>
+        <v>515000</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5576,1389 +5632,1528 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F39" s="3"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E40" s="3">
+        <v>190000</v>
+      </c>
+      <c r="F40" s="3"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>40</v>
+      <c r="C42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <f>SUM(E39:E41)</f>
+        <v>200000</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B46" s="4">
+        <v>42185</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
+        <f>+(11/48)*252000</f>
+        <v>57750</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3">
+        <f>+E47</f>
+        <v>57750</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="23" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="23" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="23" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="23" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="23" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="23" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="23" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="4">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" s="3">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="3">
+        <f>+D94/1.2</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" s="3">
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="7">
+        <f>SUM(D95:D100)</f>
+        <v>533000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="4">
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" s="4">
+        <v>45900</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="4">
+        <v>45383</v>
+      </c>
+      <c r="D109" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C112" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D112" s="3">
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C113" s="4">
+        <v>45716</v>
+      </c>
+      <c r="D113" s="3">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="3">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D116" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" s="3">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D118" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="7">
+        <f>SUM(D109:D119)</f>
+        <v>915000</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="4">
         <v>45747</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="3">
-        <v>540000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="3">
-        <f>+D50/1.2</f>
-        <v>450000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="3">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="3">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="7">
-        <f>SUM(D51:D56)</f>
-        <v>533000</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="4">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="4">
-        <v>45900</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C65" s="4">
-        <v>45383</v>
-      </c>
-      <c r="D65" s="3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="3">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" s="3">
+        <v>25000000</v>
+      </c>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E143" s="3">
+        <v>27000000</v>
+      </c>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E148" s="3">
+        <v>400000</v>
+      </c>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="4">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D160" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D162" s="3">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="4">
+        <v>45443</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="3">
+        <f>_xlfn.DAYS(C158,B163)/30</f>
+        <v>10.133333333333333</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="4">
+        <v>45565</v>
+      </c>
+      <c r="D168" s="3">
+        <f>+D109</f>
         <v>200000</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C68" s="4">
-        <v>45657</v>
-      </c>
-      <c r="D68" s="3">
-        <v>215000</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C69" s="4">
-        <v>45716</v>
-      </c>
-      <c r="D69" s="3">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="3">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="3">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="3">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="3">
-        <v>96000</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="7">
-        <f>SUM(D65:D75)</f>
-        <v>915000</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C87" s="4">
-        <v>45747</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C89" s="3">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E91" s="3">
-        <v>25000000</v>
-      </c>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E99" s="3">
-        <v>27000000</v>
-      </c>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3">
-        <v>25000000</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E104" s="3">
-        <v>400000</v>
-      </c>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B112" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C114" s="4">
-        <v>45747</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D116" s="8">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D118" s="3">
-        <v>24500</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B119" s="4">
-        <v>45443</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" s="3">
-        <f>_xlfn.DAYS(C114,B119)/30</f>
-        <v>10.133333333333333</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="4">
-        <v>45565</v>
-      </c>
-      <c r="D124" s="3">
-        <f>+D65</f>
-        <v>200000</v>
-      </c>
-      <c r="E124" s="9">
+      <c r="E168" s="9">
         <f>6/12</f>
         <v>0.5</v>
       </c>
-      <c r="F124" s="3">
-        <f>+D124*E124*$D$116</f>
+      <c r="F168" s="3">
+        <f>+D168*E168*$D$160</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125" s="4">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="4">
         <v>45657</v>
       </c>
-      <c r="D125" s="3">
-        <f>+D68</f>
+      <c r="D169" s="3">
+        <f>+D112</f>
         <v>215000</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E169" s="9">
         <f>3/12</f>
         <v>0.25</v>
       </c>
-      <c r="F125" s="3">
-        <f>+D125*E125*$D$116</f>
+      <c r="F169" s="3">
+        <f>+D169*E169*$D$160</f>
         <v>4837.5</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" s="4">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="4">
         <v>45716</v>
       </c>
-      <c r="D126" s="3">
-        <f>+D69</f>
+      <c r="D170" s="3">
+        <f>+D113</f>
         <v>210000</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E170" s="9">
         <f>1/12</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="F126" s="3">
-        <f>+D126*E126*$D$116</f>
+      <c r="F170" s="3">
+        <f>+D170*E170*$D$160</f>
         <v>1575</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="4">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="4">
         <v>45626</v>
       </c>
-      <c r="D129" s="3">
-        <f>+D72</f>
+      <c r="D173" s="3">
+        <f>+D116</f>
         <v>51000</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E173" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F129" s="3">
-        <f>+D129*E129*$D$116</f>
+      <c r="F173" s="3">
+        <f>+D173*E173*$D$160</f>
         <v>1530</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="4">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="4">
         <v>45688</v>
       </c>
-      <c r="D130" s="3">
-        <f>+D73</f>
+      <c r="D174" s="3">
+        <f>+D117</f>
         <v>68000</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E174" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F130" s="3">
-        <f>+D130*E130*$D$116</f>
+      <c r="F174" s="3">
+        <f>+D174*E174*$D$160</f>
         <v>1019.9999999999999</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" s="4">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="4">
         <v>45443</v>
       </c>
-      <c r="D133" s="1">
-        <f>+$D$74/2</f>
+      <c r="D177" s="1">
+        <f>+$D$118/2</f>
         <v>48000</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E177" s="9">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F133" s="3">
-        <f>+D133*E133*$D$116</f>
+      <c r="F177" s="3">
+        <f>+D177*E177*$D$160</f>
         <v>3600</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="4">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="4">
         <v>45473</v>
       </c>
-      <c r="D134" s="1">
-        <f>+$D$74/2</f>
+      <c r="D178" s="1">
+        <f>+$D$118/2</f>
         <v>48000</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E178" s="9">
         <v>0.75</v>
       </c>
-      <c r="F134" s="3">
-        <f>+D134*E134*$D$116</f>
+      <c r="F178" s="3">
+        <f>+D178*E178*$D$160</f>
         <v>3240</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B135" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F135" s="10">
-        <f>SUM(F124:F134)</f>
-        <v>24802.5</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F136" s="11">
-        <f>+D118</f>
-        <v>24500</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F138" s="7">
-        <f>+F136</f>
-        <v>24500</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B143" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D143" s="3">
-        <v>15000000</v>
-      </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B144" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D144" s="3">
-        <v>22000000</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3">
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B145" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D145" s="3">
-        <v>7000000</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B146" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D146" s="1">
-        <v>10</v>
-      </c>
-      <c r="F146" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B149" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D149" s="3">
-        <f>+F144-D143</f>
-        <v>5000000</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B152" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D152" s="3">
-        <f>+F144</f>
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B153" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D153" s="3">
-        <f>+D145</f>
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B154" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E154" s="3">
-        <f>+D144</f>
-        <v>22000000</v>
-      </c>
-    </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B155" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E155" s="3">
-        <f>+D153+D152-E154</f>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B158" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B159" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D159" s="3">
-        <v>15000000</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3">
-        <v>5700000</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B160" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D160" s="3">
-        <v>10000000</v>
-      </c>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B161" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D161" s="3">
-        <f>+D159-D160</f>
-        <v>5000000</v>
-      </c>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B163" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B166" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D166" s="3">
-        <f>+F159</f>
-        <v>5700000</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B167" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D167" s="3">
-        <f>+F163</f>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B168" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D168" s="3">
-        <f>+D160</f>
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B169" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E169" s="3">
-        <f>+D159</f>
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B170" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E170" s="3">
-        <f>+D168+D167+D166-E169</f>
-        <v>2200000</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B171" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B173" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B178" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C179" s="4">
-        <v>45657</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="F179" s="10">
+        <f>SUM(F168:F178)</f>
+        <v>24802.5</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F180" s="11">
+        <f>+D162</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E182" s="3">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B183" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E183" s="3">
-        <v>-1400000</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F182" s="7">
+        <f>+F180</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E184" s="5">
-        <f>SUM(E182:E183)</f>
-        <v>5600000</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+        <v>81</v>
+      </c>
+    </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C186" s="4">
-        <v>45658</v>
-      </c>
-      <c r="E186" s="3">
-        <v>8300000</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" s="3">
+        <v>15000000</v>
+      </c>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E188" s="3">
-        <f>+E186-E184</f>
-        <v>2700000</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>371</v>
+        <v>60</v>
+      </c>
+      <c r="D188" s="3">
+        <v>22000000</v>
+      </c>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3">
+        <v>20000000</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E189" s="3">
-        <f>+E183</f>
-        <v>-1400000</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>207</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D189" s="3">
+        <v>7000000</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E190" s="3">
-        <f>SUM(E188:E189)</f>
-        <v>1300000</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B192" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E192" s="3">
-        <f>+E186</f>
-        <v>8300000</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="D190" s="1">
+        <v>10</v>
+      </c>
+      <c r="F190" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E193" s="3">
-        <f>+E192/16</f>
-        <v>518750</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B194" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E194" s="3">
-        <f>+E192-E193</f>
-        <v>7781250</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="D193" s="3">
+        <f>+F188-D187</f>
+        <v>5000000</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D196" s="3">
+        <f>+F188</f>
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E197" s="3">
-        <f>+E190</f>
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="D197" s="3">
+        <f>+D189</f>
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E198" s="3">
-        <f>-E189</f>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+        <f>+D188</f>
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F199" s="3">
-        <f>SUM(E197:E198)</f>
-        <v>2700000</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B200" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="E199" s="3">
+        <f>+D197+D196-E198</f>
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E202" s="3">
-        <f>+E193</f>
-        <v>518750</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D203" s="3">
+        <v>15000000</v>
+      </c>
+      <c r="E203" s="3"/>
       <c r="F203" s="3">
-        <f>+E202</f>
-        <v>518750</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="D204" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D205" s="3">
+        <f>+D203-D204</f>
+        <v>5000000</v>
+      </c>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B209" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E209" s="3">
-        <f>+E188/16</f>
-        <v>168750</v>
-      </c>
-      <c r="F209" s="3"/>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3">
-        <f>+E209</f>
-        <v>168750</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="D210" s="3">
+        <f>+F203</f>
+        <v>5700000</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D211" s="3">
+        <f>+F207</f>
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D212" s="3">
+        <f>+D204</f>
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="E213" s="3">
+        <f>+D203</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E214" s="3">
+        <f>+D212+D211+D210-E213</f>
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E215" s="3">
-        <f>+E186</f>
-        <v>8300000</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B216" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E216" s="3">
-        <f>+E202</f>
-        <v>518750</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E217" s="7">
-        <f>+E215-E216</f>
-        <v>7781250</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B219" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B222" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B224" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C224" s="4">
-        <v>46022</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C223" s="4">
+        <v>45657</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B226" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C226" s="4">
-        <v>45657</v>
-      </c>
-      <c r="D226" s="3">
-        <v>8000000</v>
+        <v>105</v>
+      </c>
+      <c r="E226" s="3">
+        <v>7000000</v>
       </c>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C227" s="4">
-        <v>45657</v>
-      </c>
-      <c r="D227" s="3">
-        <v>7500000</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="E227" s="3">
+        <v>-1400000</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D228" s="3">
-        <f>+D226-D227</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B229" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D229" s="1">
-        <v>40</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
+        <v>106</v>
+      </c>
+      <c r="E228" s="5">
+        <f>SUM(E226:E227)</f>
+        <v>5600000</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D230" s="3">
-        <v>187500</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B231" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D231" s="3">
-        <v>200000</v>
-      </c>
-      <c r="F231" s="1">
-        <v>0</v>
+        <v>107</v>
+      </c>
+      <c r="C230" s="4">
+        <v>45658</v>
+      </c>
+      <c r="E230" s="3">
+        <v>8300000</v>
       </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B232" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C232" s="4">
-        <v>46022</v>
-      </c>
-      <c r="D232" s="3">
-        <v>8100000</v>
+        <v>108</v>
+      </c>
+      <c r="E232" s="3">
+        <f>+E230-E228</f>
+        <v>2700000</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C233" s="4">
-        <v>46022</v>
-      </c>
-      <c r="D233" s="15">
-        <f>+D227-D230</f>
-        <v>7312500</v>
+        <v>109</v>
+      </c>
+      <c r="E233" s="3">
+        <f>+E227</f>
+        <v>-1400000</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D234" s="6">
-        <f>+D232-D233</f>
-        <v>787500</v>
-      </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B235" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C235" s="4">
-        <v>46022</v>
-      </c>
-      <c r="D235" s="3">
-        <f>+D227-D230</f>
-        <v>7312500</v>
+        <v>60</v>
+      </c>
+      <c r="E234" s="3">
+        <f>SUM(E232:E233)</f>
+        <v>1300000</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D236" s="3">
-        <f>+D226-D231</f>
-        <v>7800000</v>
+        <v>60</v>
+      </c>
+      <c r="E236" s="3">
+        <f>+E230</f>
+        <v>8300000</v>
       </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D237" s="3">
-        <f>+D236-D235</f>
-        <v>487500</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="E237" s="3">
+        <f>+E236/16</f>
+        <v>518750</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B238" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D238" s="5">
-        <f>+D234-D237</f>
-        <v>300000</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B240" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D240" s="3">
-        <f>+D234</f>
-        <v>787500</v>
-      </c>
-    </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="E238" s="3">
+        <f>+E236-E237</f>
+        <v>7781250</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B241" s="1" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="E241" s="3">
-        <f>+D237</f>
-        <v>487500</v>
-      </c>
-    </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+        <f>+E234</f>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B242" s="1" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="E242" s="3">
-        <f>+D238</f>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+        <f>-E233</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B243" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F243" s="3">
+        <f>SUM(E241:E242)</f>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B244" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B245" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B246" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" s="3">
+        <f>+E237</f>
+        <v>518750</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B247" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B249" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C249" s="4">
-        <v>45658</v>
-      </c>
-      <c r="D249" s="3">
-        <v>8300000</v>
-      </c>
-    </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B250" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C250" s="4">
-        <v>45658</v>
-      </c>
-      <c r="D250" s="3">
-        <v>2700000</v>
-      </c>
-    </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F247" s="3">
+        <f>+E246</f>
+        <v>518750</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B248" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B251" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D251" s="1">
-        <v>16</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B252" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D252" s="3">
-        <f>3/16*D249</f>
-        <v>1556250</v>
-      </c>
-    </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B253" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C253" s="4">
-        <v>46752</v>
-      </c>
-      <c r="D253" s="3">
-        <f>+D249-D252</f>
-        <v>6743750</v>
-      </c>
-    </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="E253" s="3">
+        <f>+E232/16</f>
+        <v>168750</v>
+      </c>
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B254" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C254" s="4">
-        <v>46753</v>
-      </c>
-      <c r="D254" s="3">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="255" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D255" s="5">
-        <f>+D253-D254</f>
-        <v>2743750</v>
-      </c>
-    </row>
-    <row r="256" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3">
+        <f>+E253</f>
+        <v>168750</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B257" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C257" s="4">
-        <v>45658</v>
-      </c>
-      <c r="D257" s="3">
-        <f>+D250</f>
-        <v>2700000</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B258" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D258" s="3">
-        <f>3/16*D257</f>
-        <v>506250</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B259" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C259" s="4">
+      <c r="E259" s="3">
+        <f>+E230</f>
+        <v>8300000</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B260" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E260" s="3">
+        <f>+E246</f>
+        <v>518750</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E261" s="7">
+        <f>+E259-E260</f>
+        <v>7781250</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B263" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B268" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" s="4">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B270" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C270" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D270" s="3">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B271" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C271" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D271" s="3">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B272" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D272" s="3">
+        <f>+D270-D271</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B273" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D273" s="1">
+        <v>40</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B274" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D274" s="3">
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B275" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D275" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B276" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C276" s="4">
+        <v>46022</v>
+      </c>
+      <c r="D276" s="3">
+        <v>8100000</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B277" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C277" s="4">
+        <v>46022</v>
+      </c>
+      <c r="D277" s="15">
+        <f>+D271-D274</f>
+        <v>7312500</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B278" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D278" s="6">
+        <f>+D276-D277</f>
+        <v>787500</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B279" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C279" s="4">
+        <v>46022</v>
+      </c>
+      <c r="D279" s="3">
+        <f>+D271-D274</f>
+        <v>7312500</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B280" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D280" s="3">
+        <f>+D270-D275</f>
+        <v>7800000</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B281" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D281" s="3">
+        <f>+D280-D279</f>
+        <v>487500</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D282" s="5">
+        <f>+D278-D281</f>
+        <v>300000</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="284" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B284" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D284" s="3">
+        <f>+D278</f>
+        <v>787500</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B285" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E285" s="3">
+        <f>+D281</f>
+        <v>487500</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B286" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E286" s="3">
+        <f>+D282</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B288" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B308" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B310" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C310" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D310" s="3">
+        <v>8300000</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B311" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C311" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D311" s="3">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B312" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D312" s="1">
+        <v>16</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B313" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D313" s="3">
+        <f>3/16*D310</f>
+        <v>1556250</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B314" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C314" s="4">
         <v>46752</v>
       </c>
-      <c r="D259" s="5">
-        <f>+D257-D258</f>
+      <c r="D314" s="3">
+        <f>+D310-D313</f>
+        <v>6743750</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B315" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C315" s="4">
+        <v>46753</v>
+      </c>
+      <c r="D315" s="3">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D316" s="5">
+        <f>+D314-D315</f>
+        <v>2743750</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B318" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C318" s="4">
+        <v>45658</v>
+      </c>
+      <c r="D318" s="3">
+        <f>+D311</f>
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B319" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D319" s="3">
+        <f>3/16*D318</f>
+        <v>506250</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C320" s="4">
+        <v>46752</v>
+      </c>
+      <c r="D320" s="5">
+        <f>+D318-D319</f>
         <v>2193750</v>
       </c>
     </row>
-    <row r="260" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B261" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D261" s="3">
-        <f>+D255-D259</f>
+    <row r="321" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B322" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D322" s="3">
+        <f>+D316-D320</f>
         <v>550000</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B264" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E264" s="3">
-        <f>+D252</f>
+    <row r="325" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B325" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E325" s="3">
+        <f>+D313</f>
         <v>1556250</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B265" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E265" s="3">
-        <f>+D259</f>
+    <row r="326" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B326" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E326" s="3">
+        <f>+D320</f>
         <v>2193750</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B266" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E266" s="3">
-        <f>+D261</f>
+    <row r="327" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B327" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E327" s="3">
+        <f>+D322</f>
         <v>550000</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C267" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F267" s="3">
-        <f>SUM(E264:E266)</f>
+    <row r="328" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C328" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F328" s="3">
+        <f>SUM(E325:E327)</f>
         <v>4300000</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B268" s="1" t="s">
-        <v>163</v>
+    <row r="329" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B329" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6967,6 +7162,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6990,12 +7186,12 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>45838</v>
@@ -7003,13 +7199,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C7" s="4">
         <v>45474</v>
@@ -7017,21 +7213,21 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C9" s="3">
         <v>4100</v>
@@ -7048,7 +7244,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -7065,7 +7261,7 @@
     </row>
     <row r="11" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C11" s="5">
         <f>SUM(C9:C10)</f>
@@ -7087,27 +7283,27 @@
     <row r="12" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C20" s="4">
         <v>45627</v>
@@ -7118,12 +7314,12 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E23" s="3">
         <f>+D20</f>
@@ -7132,24 +7328,24 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F24" s="3">
         <f>+E23</f>
         <v>1100</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4">
         <v>45627</v>
@@ -7170,7 +7366,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="1">
@@ -7185,7 +7381,7 @@
         <v>275.66666666666669</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -7194,7 +7390,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -7205,7 +7401,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7217,12 +7413,12 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E36" s="3">
         <f>+D30</f>
@@ -7231,38 +7427,38 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F37" s="3">
         <f>+E36</f>
         <v>275.66666666666669</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C42" s="4">
         <v>45505</v>
@@ -7290,7 +7486,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C44" s="1">
         <v>11</v>
@@ -7304,7 +7500,7 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1">
         <v>45</v>
@@ -7318,7 +7514,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C46" s="3">
         <f>+C44/12*C45*0.2</f>
@@ -7339,12 +7535,12 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C49" s="3">
         <f>+E11</f>
@@ -7353,7 +7549,7 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C50" s="1">
         <f>0.2*C49</f>
@@ -7362,7 +7558,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E52" s="3">
         <f>+C50+F46</f>
@@ -7371,29 +7567,29 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F53" s="3">
         <f>+E52</f>
         <v>860.5</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="14" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C58" s="4">
         <v>44440</v>
@@ -7413,7 +7609,7 @@
         <v>38.078028747433265</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
@@ -7424,7 +7620,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D62" s="3">
         <f>C60/C61*D58</f>
@@ -7433,7 +7629,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D63" s="3">
         <f>+D58-D62</f>
@@ -7442,7 +7638,7 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D64" s="1">
         <v>68000</v>
@@ -7450,14 +7646,14 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D65" s="3">
         <f>+D64-D63</f>
         <v>39060.917180013683</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
@@ -7465,7 +7661,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D67" s="3">
         <v>210000</v>
@@ -7488,7 +7684,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
@@ -7498,7 +7694,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E72" s="3">
         <f>+D62</f>
@@ -7507,7 +7703,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3">
@@ -7517,7 +7713,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3">
@@ -7527,12 +7723,12 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C77" s="4">
         <v>45474</v>
@@ -7541,7 +7737,7 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C78" s="4">
         <f>+C59</f>
@@ -7578,12 +7774,12 @@
         <v>240.63698630136986</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F80" s="6">
         <f>SUM(F78:F79)</f>
@@ -7592,7 +7788,7 @@
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E82" s="3">
         <f>+F80</f>
@@ -7601,7 +7797,7 @@
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F83" s="3">
         <f>+E82</f>
@@ -7610,7 +7806,7 @@
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
@@ -7645,12 +7841,12 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>46265</v>
@@ -7658,28 +7854,28 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3">
         <v>1250000</v>
@@ -7687,7 +7883,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -7695,7 +7891,7 @@
     </row>
     <row r="19" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C19" s="4">
         <f>+C6</f>
@@ -7709,12 +7905,12 @@
     <row r="20" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D23" s="3">
         <v>150000</v>
@@ -7722,7 +7918,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D24" s="3">
         <f>1000000-D23</f>
@@ -7731,7 +7927,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3">
         <f>+D24*22/50</f>
@@ -7740,7 +7936,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C26" s="4">
         <v>46265</v>
@@ -7752,7 +7948,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C27" s="4">
         <v>46265</v>
@@ -7763,7 +7959,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4">
         <v>46265</v>
@@ -7778,7 +7974,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E31" s="3">
         <f>+F33-E32</f>
@@ -7788,7 +7984,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E32" s="3">
         <f>+D25</f>
@@ -7798,7 +7994,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F33" s="3">
         <f>+D28</f>
@@ -7807,12 +8003,12 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D37" s="1">
         <v>1250</v>
@@ -7820,7 +8016,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D38" s="3">
         <f>10000-D37</f>
@@ -7829,7 +8025,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D39" s="3">
         <v>1340</v>
@@ -7837,7 +8033,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C40" s="4">
         <v>45901</v>
@@ -7849,7 +8045,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E43" s="1">
         <f>+D38*0.02</f>
@@ -7858,7 +8054,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F44" s="1">
         <f>+E43</f>
@@ -7867,34 +8063,34 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="14" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C51" s="4">
         <v>45930</v>
@@ -7927,7 +8123,7 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C54" s="3">
         <v>22000</v>
@@ -7935,50 +8131,50 @@
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C55" s="3">
         <v>23000</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C56" s="3">
         <v>30000</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3">
@@ -7988,7 +8184,7 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -7999,7 +8195,7 @@
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -8017,7 +8213,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C67" s="4">
         <v>46054</v>
@@ -8031,7 +8227,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C68" s="1">
         <v>7</v>
@@ -8045,7 +8241,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C69" s="4">
         <f>+C6</f>
@@ -8065,7 +8261,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3">
@@ -8076,7 +8272,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3">
@@ -8086,7 +8282,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -8096,7 +8292,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -8107,7 +8303,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -8120,7 +8316,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -8128,7 +8324,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D78" s="3">
         <v>150</v>
@@ -8138,7 +8334,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D79" s="3">
         <v>28</v>
@@ -8148,7 +8344,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D80" s="3">
         <f>+D78-D79</f>
@@ -8159,7 +8355,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D81" s="3">
         <f>0.1*D78</f>
@@ -8180,7 +8376,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3">
@@ -8191,7 +8387,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -8202,7 +8398,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -8220,7 +8416,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -8228,7 +8424,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C90" s="4">
         <v>45200</v>
@@ -8249,7 +8445,7 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C92" s="3">
         <f>YEARFRAC(C90,C91,1)*12</f>
@@ -8264,7 +8460,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D93" s="3">
         <f>+D90-D92</f>
@@ -8275,7 +8471,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D94" s="3">
         <v>8</v>
@@ -8283,7 +8479,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D95" s="3">
         <f>+D93-D94</f>
@@ -8292,7 +8488,7 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -8303,7 +8499,7 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3">
@@ -8314,7 +8510,7 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3">
@@ -8325,7 +8521,7 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3">
@@ -8334,7 +8530,7 @@
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
@@ -8344,7 +8540,7 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8352,7 +8548,7 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D104" s="3">
         <v>360</v>
@@ -8362,7 +8558,7 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D105" s="3">
         <v>90</v>
@@ -8372,7 +8568,7 @@
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D106" s="3">
         <f>+D104-D105</f>
@@ -8397,7 +8593,7 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C109" s="4">
         <f>+C91</f>
@@ -8415,7 +8611,7 @@
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C110" s="4">
         <f>+C6</f>
@@ -8443,7 +8639,7 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D113" s="3">
         <f>+D104-22</f>
@@ -8454,7 +8650,7 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D114" s="3">
         <f>+D113*0.25</f>
@@ -8465,7 +8661,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D115" s="3">
         <f>+D113-D114</f>
@@ -8481,7 +8677,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3">
@@ -8492,7 +8688,7 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C118" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -8503,17 +8699,17 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="3">
@@ -8522,7 +8718,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D123" s="3">
         <f>+D122-D124</f>
@@ -8531,7 +8727,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C124" s="4">
         <v>45901</v>
@@ -8542,7 +8738,7 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C125" s="4">
         <v>45901</v>
@@ -8553,7 +8749,7 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D126" s="3">
         <f>+D124-D125</f>
@@ -8565,7 +8761,7 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C128" s="4">
         <v>45901</v>
@@ -8583,7 +8779,7 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -8596,7 +8792,7 @@
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3">
@@ -8607,7 +8803,7 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B133" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -8618,7 +8814,7 @@
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -8629,7 +8825,7 @@
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3">
@@ -8640,7 +8836,7 @@
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3">
@@ -8651,7 +8847,7 @@
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3">
@@ -8662,7 +8858,7 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -8675,7 +8871,7 @@
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B140" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -8683,7 +8879,7 @@
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D141" s="3">
         <v>124</v>
@@ -8693,7 +8889,7 @@
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D142" s="3">
         <v>40</v>
@@ -8704,7 +8900,7 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D143" s="3">
         <f>+E135</f>
@@ -8716,7 +8912,7 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D144" s="3">
         <f>+F134</f>
@@ -8749,7 +8945,7 @@
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B148" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3">
@@ -8761,7 +8957,7 @@
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C149" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -8773,7 +8969,7 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="D150" s="3"/>
       <c r="I150" s="3"/>
@@ -8807,30 +9003,30 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4">
         <v>44378</v>
@@ -8841,18 +9037,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4">
         <v>45473</v>
@@ -8865,7 +9061,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D14" s="3">
         <f>+D10/D11</f>
@@ -8874,7 +9070,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D15" s="3">
         <f>+D13*D14</f>
@@ -8883,7 +9079,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D16" s="3">
         <f>+D10-D15</f>
@@ -8893,35 +9089,35 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D17" s="3">
         <v>520000</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3">
         <f>+D17-D16</f>
         <v>106400</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E21" s="3">
         <f>+D18</f>
@@ -8930,7 +9126,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F22" s="3">
         <f>+E21</f>
@@ -8939,7 +9135,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E25" s="3">
         <f>+D15</f>
@@ -8948,7 +9144,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E26" s="3">
         <f>+D18-D15</f>
@@ -8957,7 +9153,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E29" s="3">
         <f>+E26</f>
@@ -8966,7 +9162,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="E30" s="3">
         <f>+E25</f>
@@ -8975,14 +9171,14 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F31" s="3">
         <f>+SUM(E29:E30)</f>
         <v>106400</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -8990,16 +9186,16 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C33" s="14"/>
       <c r="G33" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E35" s="3">
         <f>+D17</f>
@@ -9008,7 +9204,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1">
         <v>47</v>
@@ -9016,19 +9212,19 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E37" s="3">
         <f>+E35/E36</f>
         <v>11063.829787234043</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E38" s="3">
         <f>+E35-E37</f>
@@ -9037,7 +9233,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E40" s="3">
         <f>+E37</f>
@@ -9046,7 +9242,7 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F41" s="3">
         <f>+E40</f>
@@ -9055,28 +9251,28 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E47" s="3">
         <f>0.0212765957446809*F31</f>
@@ -9087,7 +9283,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F48" s="3">
         <f>+E47</f>
@@ -9097,19 +9293,19 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C52" s="14"/>
       <c r="G52" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
@@ -9117,7 +9313,7 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C54" s="14"/>
       <c r="E54" s="3">
@@ -9126,7 +9322,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C55" s="14"/>
       <c r="E55" s="3">
@@ -9136,7 +9332,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C56" s="14"/>
       <c r="E56" s="3">
@@ -9146,7 +9342,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C57" s="14"/>
       <c r="E57" s="1">
@@ -9155,7 +9351,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C58" s="14"/>
       <c r="E58" s="3">
@@ -9169,7 +9365,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C60" s="14"/>
       <c r="E60" s="3">
@@ -9179,7 +9375,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C61" s="14"/>
       <c r="E61" s="3">
@@ -9189,7 +9385,7 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C62" s="14"/>
       <c r="E62" s="3"/>
@@ -9200,7 +9396,7 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C63" s="14"/>
       <c r="E63" s="3"/>
@@ -9216,11 +9412,11 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="19" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E65" s="3">
         <f>+F31-E47</f>
@@ -9235,7 +9431,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C67" s="14"/>
       <c r="E67" s="3">
@@ -9246,7 +9442,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C68" s="14"/>
       <c r="E68" s="3"/>
@@ -9257,27 +9453,27 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="16" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -9310,17 +9506,17 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E7" s="4">
         <v>45474</v>
@@ -9328,15 +9524,15 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4">
         <v>45747</v>
@@ -9344,7 +9540,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E11" s="12">
         <v>7.0000000000000007E-2</v>
@@ -9352,7 +9548,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E12" s="12">
         <v>8.5000000000000006E-2</v>
@@ -9363,16 +9559,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E15" s="3">
         <v>13800000</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -9380,10 +9576,10 @@
         <v>2400000</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -9405,47 +9601,47 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E19" s="3">
         <f>+D17*D18</f>
         <v>729000</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E20" s="3">
         <f>+J33</f>
         <v>385000</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E21" s="7">
         <f>SUM(E15:E20)</f>
         <v>17314000</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -9453,16 +9649,16 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E23" s="3"/>
       <c r="H23" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E24" s="4">
         <v>45505</v>
@@ -9489,7 +9685,7 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E25" s="4">
         <v>45566</v>
@@ -9516,7 +9712,7 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E26" s="4">
         <v>45627</v>
@@ -9543,7 +9739,7 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="E27" s="4">
         <v>45658</v>
@@ -9570,7 +9766,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E28" s="4">
         <v>45717</v>
@@ -9594,7 +9790,7 @@
         <v>9208.3333333333339</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
@@ -9609,7 +9805,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="J31" s="14">
         <v>385000</v>
@@ -9620,7 +9816,7 @@
     </row>
     <row r="33" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="J33" s="7">
         <f>+MIN(J29,J31)</f>
@@ -9630,32 +9826,32 @@
     <row r="34" spans="2:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -9688,20 +9884,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4">
         <v>44197</v>
@@ -9712,18 +9908,18 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D8" s="8">
         <v>0.02</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D9" s="3">
         <v>4000000</v>
@@ -9731,7 +9927,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C10" s="4">
         <v>46022</v>
@@ -9742,7 +9938,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C11" s="4">
         <v>46752</v>
@@ -9753,7 +9949,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4">
         <v>46022</v>
@@ -9765,7 +9961,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C15" s="4">
         <v>46022</v>
@@ -9777,7 +9973,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C16" s="4">
         <v>46022</v>
@@ -9789,7 +9985,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4">
         <v>46022</v>
@@ -9801,7 +9997,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4">
         <v>46022</v>
@@ -9813,7 +10009,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E20" s="3">
         <f>+D15</f>
@@ -9822,7 +10018,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E21" s="3">
         <f>+D18-E20</f>
@@ -9831,7 +10027,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F22" s="3">
         <f>SUM(E20:E21)</f>
@@ -9840,7 +10036,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E24" s="3">
         <f>+F22/45</f>
@@ -9857,7 +10053,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C28" s="4">
         <v>46752</v>
@@ -9869,7 +10065,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4">
         <v>46752</v>
@@ -9879,12 +10075,12 @@
         <v>444444.44444444444</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C30" s="4">
         <v>46752</v>
@@ -9896,7 +10092,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C31" s="4">
         <v>46752</v>
@@ -9907,7 +10103,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D32" s="3">
         <f>+D30-D31</f>
@@ -9919,7 +10115,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D34" s="3">
         <f>+F22</f>
@@ -9928,7 +10124,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D35" s="3">
         <f>+E24*2</f>
@@ -9937,7 +10133,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D36" s="3">
         <f>+D34-D35</f>
@@ -9949,7 +10145,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D38" s="3">
         <f>+D32-D36</f>
@@ -9961,7 +10157,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E41" s="3">
         <f>+F22-E24*2</f>
@@ -9970,7 +10166,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E42" s="3">
         <f>+D38</f>
@@ -9979,7 +10175,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E43" s="3">
         <f>+D29</f>
@@ -9988,7 +10184,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F44" s="3">
         <f>SUM(E41:E43)</f>
@@ -10023,15 +10219,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4">
         <v>44561</v>
@@ -10039,7 +10235,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>2021</v>
@@ -10050,18 +10246,18 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D8" s="8">
         <v>0.05</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D9" s="3">
         <f>+D7*D8</f>
@@ -10070,7 +10266,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C10" s="4">
         <v>46387</v>
@@ -10081,7 +10277,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C11" s="4">
         <v>47483</v>
@@ -10097,7 +10293,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E15" s="3">
         <v>20000000</v>
@@ -10106,19 +10302,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3">
         <v>20000000</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -10129,7 +10325,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E19" s="3">
         <f>+D9</f>
@@ -10139,7 +10335,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
@@ -10147,12 +10343,12 @@
         <v>1000000</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -10170,7 +10366,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E24" s="3">
         <f>+E19</f>
@@ -10180,7 +10376,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
@@ -10194,14 +10390,14 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3">
@@ -10214,7 +10410,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4">
         <v>46387</v>
@@ -10226,7 +10422,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C32" s="4">
         <v>46387</v>
@@ -10238,19 +10434,19 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D33" s="3">
         <f>+D32-D31</f>
         <v>-4000000</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D34" s="1">
         <v>14</v>
@@ -10258,7 +10454,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D35" s="3">
         <f>+D32/D34</f>
@@ -10269,7 +10465,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D36" s="3">
         <f>+D9</f>
@@ -10285,7 +10481,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3">
@@ -10296,7 +10492,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3">
@@ -10307,7 +10503,7 @@
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -10316,12 +10512,12 @@
         <v>10000000</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -10339,7 +10535,7 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
@@ -10349,12 +10545,12 @@
       </c>
       <c r="F44" s="3"/>
       <c r="H44" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -10370,7 +10566,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
@@ -10382,7 +10578,7 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -10398,7 +10594,7 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -10411,7 +10607,7 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C52" s="4">
         <v>47483</v>
@@ -10423,15 +10619,15 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="H52" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C53" s="4">
         <v>47483</v>
@@ -10442,7 +10638,7 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C54" s="4">
         <v>47483</v>
@@ -10452,7 +10648,7 @@
         <v>10142857.142857142</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
@@ -10463,7 +10659,7 @@
       <c r="C56" s="4"/>
       <c r="D56" s="3"/>
       <c r="H56" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
@@ -10472,7 +10668,7 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="3">
@@ -10480,12 +10676,12 @@
         <v>11000000</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="3">
@@ -10495,7 +10691,7 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="3">
@@ -10509,7 +10705,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="3"/>
@@ -10520,7 +10716,7 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
@@ -10531,7 +10727,7 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="3"/>
@@ -10540,12 +10736,12 @@
         <v>3142857.1428571427</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
@@ -10554,7 +10750,7 @@
         <v>6999999.9999999991</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -10585,12 +10781,12 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>43830</v>
@@ -10598,22 +10794,22 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -10621,18 +10817,18 @@
         <v>43465</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3">
         <v>6107</v>
@@ -10646,7 +10842,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3">
         <v>2207</v>
@@ -10660,7 +10856,7 @@
     </row>
     <row r="16" spans="1:5" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C16" s="5">
         <f>+C14-C15</f>
@@ -10678,28 +10874,28 @@
     <row r="17" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D23" s="3">
         <v>1200</v>
@@ -10713,7 +10909,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -10727,7 +10923,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D25" s="3">
         <f>+D23-D24</f>
@@ -10744,7 +10940,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C26" s="4">
         <v>43466</v>
@@ -10761,7 +10957,7 @@
     </row>
     <row r="27" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D27" s="5">
         <f>+D26-D25</f>
@@ -10783,10 +10979,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E29" s="3">
         <v>30</v>
@@ -10802,7 +10998,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -10810,7 +11006,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -10818,7 +11014,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
@@ -10827,12 +11023,12 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="16" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -10841,18 +11037,18 @@
         <v>1100</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -10862,7 +11058,7 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -10870,7 +11066,7 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3">
@@ -10881,7 +11077,7 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="17">
@@ -10891,7 +11087,7 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -10907,7 +11103,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -10915,7 +11111,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="17">
@@ -10926,7 +11122,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -10942,7 +11138,7 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3">
@@ -10953,7 +11149,7 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3">
@@ -10964,7 +11160,7 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3">
@@ -10975,7 +11171,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -10990,14 +11186,14 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C52" s="3">
         <v>6107</v>
@@ -11007,7 +11203,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C53" s="3">
         <f>+D23</f>
@@ -11018,7 +11214,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C54" s="3">
         <f>+E23</f>
@@ -11029,7 +11225,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C55" s="3">
         <f>+F23</f>
@@ -11061,7 +11257,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="D59" s="3">
         <f>+E26/E29</f>
@@ -11072,7 +11268,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D60" s="3">
         <f>+F26/F29</f>
@@ -11095,7 +11291,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E63" s="3">
         <f>+D61</f>
@@ -11105,7 +11301,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3">
@@ -11115,17 +11311,17 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="14" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C70" s="4">
         <v>43497</v>
@@ -11136,7 +11332,7 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C71" s="1">
         <v>11</v>
@@ -11148,7 +11344,7 @@
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C72" s="4">
         <f>+C5</f>
@@ -11159,17 +11355,17 @@
         <v>372.41666666666669</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H73" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="E74" s="17">
         <f>+D70</f>
@@ -11178,7 +11374,7 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="F75" s="17">
         <f>+E74</f>
@@ -11187,17 +11383,17 @@
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C79" s="4">
         <v>40544</v>
@@ -11208,7 +11404,7 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C80" s="1">
         <v>8</v>
@@ -11220,7 +11416,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D81" s="3">
         <f>+D79-D80</f>
@@ -11229,7 +11425,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D82" s="1">
         <v>60</v>
@@ -11237,7 +11433,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D83" s="3">
         <f>+D82-D81</f>
@@ -11246,7 +11442,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C84" s="4">
         <v>43601</v>
@@ -11257,7 +11453,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C85" s="4">
         <f>+C5</f>
@@ -11270,7 +11466,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C86" s="4">
         <f>+C6</f>
@@ -11283,7 +11479,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E88" s="18">
         <f>+D84</f>
@@ -11292,7 +11488,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F89" s="18">
         <f>+E88</f>
@@ -11301,7 +11497,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="F90" s="17">
         <f>+D79</f>
@@ -11310,7 +11506,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E91" s="17">
         <f>+D80</f>
@@ -11319,7 +11515,7 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E92" s="18">
         <f>+D82</f>
@@ -11328,7 +11524,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F93" s="17">
         <f>+E92+E91-F90</f>
@@ -11337,12 +11533,12 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E96" s="1">
         <v>110</v>
@@ -11350,7 +11546,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F97" s="1">
         <f>+E96</f>
@@ -11359,18 +11555,18 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="14" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D102" s="3">
         <f>+D14</f>
@@ -11379,7 +11575,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D103" s="3">
         <f>+D70</f>
@@ -11394,7 +11590,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D105" s="3">
         <f>-F90</f>
@@ -11403,7 +11599,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D106" s="3">
         <f>SUM(D102:D105)</f>
@@ -11412,7 +11608,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D107" s="3">
         <f>+D106/10</f>
@@ -11421,7 +11617,7 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="E109" s="3">
         <f>+D107</f>
@@ -11430,7 +11626,7 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F110" s="3">
         <f>+E109</f>
@@ -11439,17 +11635,17 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="14" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C114" s="4">
         <v>43677</v>
@@ -11463,7 +11659,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C115" s="3">
         <f>YEARFRAC(C114,C5,1)*12</f>
@@ -11478,7 +11674,7 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C116" s="4">
         <f>+C5</f>
@@ -11498,7 +11694,7 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3">
@@ -11509,7 +11705,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -11525,7 +11721,7 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C121" s="4">
         <v>42370</v>
@@ -11539,7 +11735,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C122" s="1">
         <v>43</v>
@@ -11553,7 +11749,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D123" s="3">
         <f>+D121-D122</f>
@@ -11564,7 +11760,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C124" s="4">
         <v>43678</v>
@@ -11578,7 +11774,7 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D125" s="3">
         <f>+D124-D123</f>
@@ -11599,7 +11795,7 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C128" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -11610,7 +11806,7 @@
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3">
@@ -11621,7 +11817,7 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3">
@@ -11632,7 +11828,7 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3">
@@ -11643,7 +11839,7 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -11656,7 +11852,7 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -11664,7 +11860,7 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D135" s="3">
         <f>+E14*1000</f>
@@ -11675,7 +11871,7 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D136" s="3">
         <f>+D114</f>
@@ -11686,7 +11882,7 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D137" s="3">
         <f>+D121</f>
@@ -11697,7 +11893,7 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D138" s="3">
         <f>+D135+D136-D137</f>
@@ -11721,7 +11917,7 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3">
@@ -11732,7 +11928,7 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C142" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
